--- a/Algo and DSA/Important DSA and Algo For MAANG.xlsx
+++ b/Algo and DSA/Important DSA and Algo For MAANG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. My WorkSpace and Notes\FAANG-Interview-Preparation\Algo and DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ECFAC5-890A-471C-8516-96370E530578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08FEFC1-560D-4253-B780-D365B042AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Companies List" sheetId="16" r:id="rId1"/>
@@ -7583,7 +7583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21290B4D-0431-4DB1-B198-245782CB951C}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10993,7 +10995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62:A68"/>
     </sheetView>
   </sheetViews>
@@ -12193,16 +12195,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D27934A-621C-4609-864F-0A2F281C3689}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.5703125" customWidth="1"/>
     <col min="5" max="5" width="167.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22000,7 +22002,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
